--- a/algoritm_bloksxemalari.xlsx
+++ b/algoritm_bloksxemalari.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="insertion_sort" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="linked_list" sheetId="6" r:id="rId5"/>
     <sheet name="prime_numbers" sheetId="7" r:id="rId6"/>
     <sheet name="Лист1" sheetId="8" r:id="rId7"/>
+    <sheet name="reverse" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>time</t>
   </si>
@@ -75,6 +76,63 @@
   <si>
     <t>cost</t>
   </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>n(n+1)</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>spaces</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>words</t>
+  </si>
+  <si>
+    <t>word_start</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -599,11 +657,76 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -714,6 +837,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,6 +880,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6376,166 +6526,166 @@
     </row>
     <row r="23" spans="3:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="63"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="63"/>
-      <c r="AK24" s="63"/>
-      <c r="AL24" s="63"/>
-      <c r="AM24" s="63"/>
-      <c r="AN24" s="63"/>
-      <c r="AO24" s="63"/>
-      <c r="AP24" s="63"/>
-      <c r="AQ24" s="63"/>
-      <c r="AR24" s="63"/>
-      <c r="AS24" s="63"/>
-      <c r="AT24" s="63"/>
-      <c r="AU24" s="63"/>
-      <c r="AV24" s="63"/>
-      <c r="AW24" s="63"/>
-      <c r="AX24" s="63"/>
-      <c r="AY24" s="63"/>
-      <c r="AZ24" s="63"/>
-      <c r="BA24" s="63"/>
-      <c r="BB24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="66"/>
+      <c r="AV24" s="66"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="66"/>
+      <c r="AZ24" s="66"/>
+      <c r="BA24" s="66"/>
+      <c r="BB24" s="67"/>
     </row>
     <row r="25" spans="3:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="66"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="66"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="66"/>
-      <c r="AZ25" s="66"/>
-      <c r="BA25" s="66"/>
-      <c r="BB25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="69"/>
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="69"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="69"/>
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="69"/>
+      <c r="AN25" s="69"/>
+      <c r="AO25" s="69"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="69"/>
+      <c r="AS25" s="69"/>
+      <c r="AT25" s="69"/>
+      <c r="AU25" s="69"/>
+      <c r="AV25" s="69"/>
+      <c r="AW25" s="69"/>
+      <c r="AX25" s="69"/>
+      <c r="AY25" s="69"/>
+      <c r="AZ25" s="69"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="70"/>
     </row>
     <row r="26" spans="3:54" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="69"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="69"/>
-      <c r="BB26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="72"/>
+      <c r="AN26" s="72"/>
+      <c r="AO26" s="72"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+      <c r="AW26" s="72"/>
+      <c r="AX26" s="72"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="72"/>
+      <c r="BA26" s="72"/>
+      <c r="BB26" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6748,85 +6898,85 @@
     </row>
     <row r="15" spans="3:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="67"/>
     </row>
     <row r="17" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="70"/>
     </row>
     <row r="18" spans="3:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6864,10 +7014,10 @@
       <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="72"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="27"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21">
@@ -6922,10 +7072,10 @@
       <c r="D6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="76">
         <v>2</v>
       </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="28">
         <v>1</v>
       </c>
@@ -6958,10 +7108,10 @@
       <c r="D8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="28">
         <v>2</v>
       </c>
@@ -6994,10 +7144,10 @@
       <c r="D10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="28">
         <v>3</v>
       </c>
@@ -7049,8 +7199,8 @@
     </row>
     <row r="13" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="24"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="67"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="28"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
@@ -7066,10 +7216,10 @@
       <c r="D14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="76">
         <v>1</v>
       </c>
-      <c r="F14" s="67"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="28">
         <v>5</v>
       </c>
@@ -7135,94 +7285,94 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="4:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="67"/>
     </row>
     <row r="20" spans="4:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="69"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="70"/>
     </row>
     <row r="21" spans="4:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="73"/>
     </row>
     <row r="22" spans="4:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
@@ -8670,7 +8820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -8888,4 +9038,737 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AH30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" customWidth="1"/>
+    <col min="19" max="34" width="3.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:34" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21">
+        <v>2</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21">
+        <v>3</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21">
+        <v>4</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21">
+        <v>5</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="24"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="13"/>
+      <c r="S4" s="78">
+        <v>0</v>
+      </c>
+      <c r="T4" s="78">
+        <v>1</v>
+      </c>
+      <c r="U4" s="78">
+        <v>2</v>
+      </c>
+      <c r="V4" s="78">
+        <v>3</v>
+      </c>
+      <c r="W4" s="78">
+        <v>4</v>
+      </c>
+      <c r="X4" s="78">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="78">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="78">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="78">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="78">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="78">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="78">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="78">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="78">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="78">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="62">
+        <v>2</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF5" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" s="77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="24"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="62">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="24"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="62">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="24"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="62">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="80"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="81"/>
+      <c r="AH11" s="82"/>
+    </row>
+    <row r="12" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="24"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="62">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="24"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="24">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="1" t="b">
+        <f>S13&lt;S7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="24"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="24">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="24"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="24">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="1">
+        <f>S13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="24"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="24">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="24"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="24">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="24"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="24">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="24"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="24">
+        <v>12</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="24"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="62">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="3:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="25"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>